--- a/DesisionTrees.xlsx
+++ b/DesisionTrees.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\New folder (3)\New folder (2)\2019-2010 SEASION II\SEASION II\Applications of intelligent algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ID3\DecisionTrees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5045DA68-70D0-4354-96CC-9ED686024461}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C3F1078-530E-41A8-AF75-E04BA76DB452}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,7 +136,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -532,12 +532,12 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -557,7 +557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -597,7 +597,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -617,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -637,7 +637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -677,7 +677,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -717,7 +717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -737,7 +737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -757,7 +757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -777,7 +777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -797,7 +797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -817,7 +817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -855,9 +855,9 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +877,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -897,7 +897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>3</v>
       </c>
@@ -917,7 +917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>5</v>
       </c>
@@ -937,7 +937,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>6</v>
       </c>
@@ -957,7 +957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -977,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>4</v>
       </c>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
